--- a/datawarehouse/sentiment_analyst.xlsx
+++ b/datawarehouse/sentiment_analyst.xlsx
@@ -534,7 +534,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:30</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
